--- a/InvoiceList/Result/Invoices.xlsx
+++ b/InvoiceList/Result/Invoices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsub\Desktop\Invoices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsub\Desktop\Invoices\InvoiceList\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535E1C3D-B5A9-4DC2-A8BC-3C9F26341842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5286F771-43CA-4A39-82D9-058249B4C713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル株式会社_x000d__x000a_" sheetId="2" r:id="rId1"/>
@@ -536,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -601,9 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -891,9 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -941,9 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
